--- a/testdata/test_data.xlsx
+++ b/testdata/test_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303558\eclipse-workspace\hackathon\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AED60C-930E-4325-A3B9-C528A2A0D012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3F0A3B-B4C4-49C9-AAF6-A04D4432EE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,12 +39,6 @@
     <t>Number of Adults</t>
   </si>
   <si>
-    <t>8829</t>
-  </si>
-  <si>
-    <t>13216</t>
-  </si>
-  <si>
     <t>Wedding Gift Card</t>
   </si>
   <si>
@@ -169,6 +163,12 @@
   </si>
   <si>
     <t>40</t>
+  </si>
+  <si>
+    <t>8441</t>
+  </si>
+  <si>
+    <t>12663</t>
   </si>
 </sst>
 </file>
@@ -210,9 +210,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,221 +527,601 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D10" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D11" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D13" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D14" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D15" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D17" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D18" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D19" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D20" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D21" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D22" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D23" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D24" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D25" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D26" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D27" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D28" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D29" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D30" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D31" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D32" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D33" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D34" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D35" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D36" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D37" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D38" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D39" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D41" t="s">
-        <v>47</v>
-      </c>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testdata/test_data.xlsx
+++ b/testdata/test_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303558\eclipse-workspace\hackathon\testdata\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="50">
   <si>
     <t>Lowest Prices</t>
   </si>
@@ -169,12 +169,19 @@
   </si>
   <si>
     <t>12663</t>
+  </si>
+  <si>
+    <t>8793</t>
+  </si>
+  <si>
+    <t>13188</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -506,10 +513,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="38.36328125" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.81640625"/>
+    <col min="2" max="2" customWidth="true" width="23.7265625"/>
+    <col min="3" max="3" customWidth="true" width="38.36328125"/>
+    <col min="4" max="4" customWidth="true" width="18.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -527,28 +534,28 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>47</v>
+      <c r="A3" t="s">
+        <v>49</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -556,7 +563,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -564,7 +571,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -572,7 +579,7 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -580,7 +587,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -588,7 +595,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -596,7 +603,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -604,7 +611,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -612,7 +619,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -620,7 +627,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -628,7 +635,7 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -636,7 +643,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -644,7 +651,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -652,7 +659,7 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -660,7 +667,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -668,7 +675,7 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -676,7 +683,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -684,7 +691,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -692,7 +699,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>25</v>
       </c>
     </row>
@@ -700,7 +707,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -708,7 +715,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>27</v>
       </c>
     </row>
@@ -716,7 +723,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>28</v>
       </c>
     </row>
@@ -724,7 +731,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>29</v>
       </c>
     </row>
@@ -732,7 +739,7 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>30</v>
       </c>
     </row>
@@ -740,7 +747,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>31</v>
       </c>
     </row>
@@ -748,7 +755,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>32</v>
       </c>
     </row>
@@ -756,7 +763,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -764,7 +771,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>34</v>
       </c>
     </row>
@@ -772,7 +779,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>35</v>
       </c>
     </row>
@@ -780,7 +787,7 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>36</v>
       </c>
     </row>
@@ -788,7 +795,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -796,7 +803,7 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>38</v>
       </c>
     </row>
@@ -804,7 +811,7 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
         <v>39</v>
       </c>
     </row>
@@ -812,7 +819,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>40</v>
       </c>
     </row>
@@ -820,7 +827,7 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s">
         <v>41</v>
       </c>
     </row>
@@ -828,7 +835,7 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s">
         <v>42</v>
       </c>
     </row>
@@ -836,7 +843,7 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -844,7 +851,7 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>44</v>
       </c>
     </row>
@@ -852,7 +859,7 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
+      <c r="D41" t="s">
         <v>45</v>
       </c>
     </row>
